--- a/Documents/bulk/teachers.xlsx
+++ b/Documents/bulk/teachers.xlsx
@@ -605,7 +605,7 @@
     <t>д-р филос. наук</t>
   </si>
   <si>
-    <t>канд. юрид. Наук</t>
+    <t>канд. юрид. наук</t>
   </si>
 </sst>
 </file>
@@ -683,13 +683,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1131,11 +1131,11 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -1159,9 +1159,9 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1179,11 +1179,11 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
@@ -1207,9 +1207,9 @@
       <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
@@ -1233,9 +1233,9 @@
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
@@ -1253,9 +1253,9 @@
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
@@ -1279,9 +1279,9 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
@@ -1302,7 +1302,7 @@
       <c r="F9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>180</v>
       </c>
     </row>
